--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1865.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1865.xlsx
@@ -357,7 +357,7 @@
         <v>0.4601282948177698</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>3.019176207294952</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1865.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1865.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.190458365951147</v>
+        <v>1.745259523391724</v>
       </c>
       <c r="B1">
-        <v>0.262966785773199</v>
+        <v>2.630134105682373</v>
       </c>
       <c r="C1">
-        <v>0.4601282948177698</v>
+        <v>2.617287397384644</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.701791048049927</v>
       </c>
       <c r="E1">
-        <v>3.019176207294952</v>
+        <v>3.400125503540039</v>
       </c>
     </row>
   </sheetData>
